--- a/data/trans_dic/P29A-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P29A-Dificultad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.3710433615641175</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.2966818138424759</v>
+        <v>0.2966818138424758</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4529923281858546</v>
+        <v>0.4566266699447632</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5101104486722767</v>
+        <v>0.5064304486988277</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4777507586527865</v>
+        <v>0.4789141916297375</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3824527122437336</v>
+        <v>0.3813338553806904</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1559957002372418</v>
+        <v>0.1554848427145299</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.189063222377897</v>
+        <v>0.1922641539484827</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2240256553114749</v>
+        <v>0.2250855739105982</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1611155738271564</v>
+        <v>0.1631033630456916</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2792760242143916</v>
+        <v>0.2798151038583776</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3506558552332324</v>
+        <v>0.3499005434499655</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3505059697162095</v>
+        <v>0.3481989138313575</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2681115869081404</v>
+        <v>0.2699152401819379</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5377742496884148</v>
+        <v>0.5396353879770679</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5732342568002171</v>
+        <v>0.5743621514040657</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5402334994408217</v>
+        <v>0.541946299406694</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4823263450065676</v>
+        <v>0.4800255254054823</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2073656009819684</v>
+        <v>0.2076052577762671</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2426329317810114</v>
+        <v>0.2419898898860104</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.273417818236332</v>
+        <v>0.2752739665103741</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.216873158490621</v>
+        <v>0.2193336706542362</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3260544230142332</v>
+        <v>0.3283359713791714</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3940407636572718</v>
+        <v>0.3918386686692093</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3913952914229376</v>
+        <v>0.3913038641683944</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3256428420475758</v>
+        <v>0.3248577696657385</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.5797565948116185</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.4774570039047935</v>
+        <v>0.4774570039047936</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.2172120746677731</v>
@@ -833,7 +833,7 @@
         <v>0.4337379252331652</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.3392444955432862</v>
+        <v>0.3392444955432863</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5270490977634825</v>
+        <v>0.5270277256555765</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5342144408779678</v>
+        <v>0.5324626133204122</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.547652353730417</v>
+        <v>0.543361279968996</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4440971218386245</v>
+        <v>0.4426394256743008</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1909793006373426</v>
+        <v>0.1924228783485382</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2333284196241698</v>
+        <v>0.2329024153918373</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2750603772069893</v>
+        <v>0.2770869267552829</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1980673151098823</v>
+        <v>0.1974684474889697</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3672487690046692</v>
+        <v>0.3680886451713618</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.3769284432922385</v>
+        <v>0.3792372438184529</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.4116537054830116</v>
+        <v>0.4111969351732551</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3187939674570352</v>
+        <v>0.319576272448456</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.591032444954237</v>
+        <v>0.5894126811044704</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.598809358032339</v>
+        <v>0.5974705718022055</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6153413686041102</v>
+        <v>0.6132085824415875</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.515655153866681</v>
+        <v>0.5126741645884799</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2414750743790348</v>
+        <v>0.2432762070164956</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2871416776726928</v>
+        <v>0.2862648102486553</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3327654415356872</v>
+        <v>0.3338831788584769</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2438726718893418</v>
+        <v>0.2440443526509722</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4098419900025115</v>
+        <v>0.4099740557236853</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.421263364215108</v>
+        <v>0.4232256589198631</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4559076419662718</v>
+        <v>0.4559440321094002</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3618240637648936</v>
+        <v>0.3606449437122676</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.6254290105178761</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.4837416757121071</v>
+        <v>0.483741675712107</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.2959010898597861</v>
@@ -957,7 +957,7 @@
         <v>0.3662528376098496</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2549923231657699</v>
+        <v>0.25499232316577</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.436068529546725</v>
@@ -969,7 +969,7 @@
         <v>0.4990754669395792</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.3692529050186942</v>
+        <v>0.3692529050186943</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.534176916672218</v>
+        <v>0.5313420447646652</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5435703496389366</v>
+        <v>0.5518532461988832</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5917149052234594</v>
+        <v>0.5913231583778885</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4487440431503855</v>
+        <v>0.4537843149567022</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2693746338878849</v>
+        <v>0.2701171486366549</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2424859426598997</v>
+        <v>0.2439440984108164</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3295014011520044</v>
+        <v>0.3329469143414122</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2328245999476269</v>
+        <v>0.2327087522069232</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4144693591970839</v>
+        <v>0.4134284769722091</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4039828451688997</v>
+        <v>0.4026472147184664</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.4729226797912767</v>
+        <v>0.4706664934125835</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3491064415747589</v>
+        <v>0.3486586540619596</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.594118160238096</v>
+        <v>0.5893413692309744</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6171244577739766</v>
+        <v>0.6209100648818274</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6629047083103182</v>
+        <v>0.6602796598626881</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5167357532799647</v>
+        <v>0.5197050817102192</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3235375048293172</v>
+        <v>0.3278649845363714</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3072603722843</v>
+        <v>0.3032816313376427</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4013828010287507</v>
+        <v>0.4051336316579107</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.277677142746583</v>
+        <v>0.2808756910686815</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4567046464277671</v>
+        <v>0.4575951026887211</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4523236499676225</v>
+        <v>0.45254582482571</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.5242106769623683</v>
+        <v>0.5228451289995705</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3904835984425955</v>
+        <v>0.3905535081230441</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5380893471050059</v>
+        <v>0.5423420312520097</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5100446934683113</v>
+        <v>0.5105663433641774</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.566149876007176</v>
+        <v>0.5693844240984328</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4656558490285093</v>
+        <v>0.4640576430888488</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3133990060871732</v>
+        <v>0.3105453209530113</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2788600788284055</v>
+        <v>0.277876228522991</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3169057636626082</v>
+        <v>0.3223391268866643</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2702050522199397</v>
+        <v>0.2735245191542952</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4540706794010528</v>
+        <v>0.4506237467716364</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.4124207983692369</v>
+        <v>0.4146335978474321</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.4603585793646924</v>
+        <v>0.4562017203820262</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.379367332997227</v>
+        <v>0.3803099630300652</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6349323418707781</v>
+        <v>0.632427490120825</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6056036666235871</v>
+        <v>0.6073524363484413</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6586072331191766</v>
+        <v>0.6587487705264611</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5347438077009257</v>
+        <v>0.5334387325555038</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4155398599826665</v>
+        <v>0.411341792855991</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3720346639291593</v>
+        <v>0.3745422387851128</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4127167243914964</v>
+        <v>0.4118397835857613</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3300751874575195</v>
+        <v>0.3293344201826563</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5288099436703118</v>
+        <v>0.5272253043305958</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.4830067438393871</v>
+        <v>0.4848952873116862</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.5271094013087616</v>
+        <v>0.520294965640193</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.426744924422536</v>
+        <v>0.4286048546900222</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.4352311681054281</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.3580770371957491</v>
+        <v>0.358077037195749</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5359358947622075</v>
+        <v>0.5349682023922572</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5434623634107999</v>
+        <v>0.5451927439330448</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5529232269816473</v>
+        <v>0.5534108818783131</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4620145007674397</v>
+        <v>0.4614184595829032</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2310894438157714</v>
+        <v>0.2314498963674992</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2430006586367759</v>
+        <v>0.2418484377668444</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2919632729356729</v>
+        <v>0.2909160796217349</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2314041037148945</v>
+        <v>0.2306564290066439</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3844108953441449</v>
+        <v>0.3848707157485213</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3918877179856062</v>
+        <v>0.3908738403552605</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.4244234455578933</v>
+        <v>0.4232326779546476</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.346490242321605</v>
+        <v>0.3468798949576988</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.570844874945825</v>
+        <v>0.5696122751550058</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5801840623204144</v>
+        <v>0.5793865889319012</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5890446321626965</v>
+        <v>0.5875007474900908</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4992800069000027</v>
+        <v>0.4974988299858288</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2609853314078389</v>
+        <v>0.2610180490523596</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2714523493660494</v>
+        <v>0.2732211674855242</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3242932804934505</v>
+        <v>0.3219755976703405</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2570475160974444</v>
+        <v>0.2565957630610596</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4097402033305644</v>
+        <v>0.4093784736385889</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.4175220540932042</v>
+        <v>0.4157565316256714</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.4480234562352368</v>
+        <v>0.4469699303369515</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3690297570509532</v>
+        <v>0.3693670567462448</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>262013</v>
+        <v>264115</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>510737</v>
+        <v>507053</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>529102</v>
+        <v>530391</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>189815</v>
+        <v>189260</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>142705</v>
+        <v>142238</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>207750</v>
+        <v>211267</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>278707</v>
+        <v>280025</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>100199</v>
+        <v>101436</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>417016</v>
+        <v>417821</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>736401</v>
+        <v>734815</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>824239</v>
+        <v>818814</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>299808</v>
+        <v>301825</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>311051</v>
+        <v>312127</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>573939</v>
+        <v>575068</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>598301</v>
+        <v>600198</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>239383</v>
+        <v>238241</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>189698</v>
+        <v>189917</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>266615</v>
+        <v>265908</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>340155</v>
+        <v>342464</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>134876</v>
+        <v>136406</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>486866</v>
+        <v>490273</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>827512</v>
+        <v>822888</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>920393</v>
+        <v>920178</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>364140</v>
+        <v>363262</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>563080</v>
+        <v>563057</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>498215</v>
+        <v>496581</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>476880</v>
+        <v>473143</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>426059</v>
+        <v>424661</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>201374</v>
+        <v>202896</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>251993</v>
+        <v>251533</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>272942</v>
+        <v>274953</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>220457</v>
+        <v>219790</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>779593</v>
+        <v>781376</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>758609</v>
+        <v>763256</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>766940</v>
+        <v>766089</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>660676</v>
+        <v>662297</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>631438</v>
+        <v>629707</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>558457</v>
+        <v>557208</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>535821</v>
+        <v>533964</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>494711</v>
+        <v>491851</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>254618</v>
+        <v>256517</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>310111</v>
+        <v>309164</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>330203</v>
+        <v>331312</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>271440</v>
+        <v>271631</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>870009</v>
+        <v>870290</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>847838</v>
+        <v>851787</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>849388</v>
+        <v>849456</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>749853</v>
+        <v>747409</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>586000</v>
+        <v>582890</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>456990</v>
+        <v>463954</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>470570</v>
+        <v>470259</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>469186</v>
+        <v>474456</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>265513</v>
+        <v>266245</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>207014</v>
+        <v>208258</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>249278</v>
+        <v>251885</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>243917</v>
+        <v>243795</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>863206</v>
+        <v>861038</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>684522</v>
+        <v>682259</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>733880</v>
+        <v>730379</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>730748</v>
+        <v>729811</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>651757</v>
+        <v>646516</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>518828</v>
+        <v>522011</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>527185</v>
+        <v>525097</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>540275</v>
+        <v>543380</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>318899</v>
+        <v>323165</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>262312</v>
+        <v>258916</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>303659</v>
+        <v>306497</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>290906</v>
+        <v>294257</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>951169</v>
+        <v>953023</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>766432</v>
+        <v>766809</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>813469</v>
+        <v>811350</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>817358</v>
+        <v>817505</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>238977</v>
+        <v>240866</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>246036</v>
+        <v>246288</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>277519</v>
+        <v>279104</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>453698</v>
+        <v>452141</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>106919</v>
+        <v>105945</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>122143</v>
+        <v>121712</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>151628</v>
+        <v>154228</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>244653</v>
+        <v>247659</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>356573</v>
+        <v>353866</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>379588</v>
+        <v>381624</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>445926</v>
+        <v>441900</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>713118</v>
+        <v>714890</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>281987</v>
+        <v>280875</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>292132</v>
+        <v>292976</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>322840</v>
+        <v>322909</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>521012</v>
+        <v>519741</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>141765</v>
+        <v>140333</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>162954</v>
+        <v>164052</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>197470</v>
+        <v>197051</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>298862</v>
+        <v>298191</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>415264</v>
+        <v>414019</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>444554</v>
+        <v>446292</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>510585</v>
+        <v>503984</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>802176</v>
+        <v>805672</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1708513</v>
+        <v>1705428</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1770025</v>
+        <v>1775661</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1804580</v>
+        <v>1806172</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1605762</v>
+        <v>1603691</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>761682</v>
+        <v>762870</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>843347</v>
+        <v>839348</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1013515</v>
+        <v>1009880</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>853424</v>
+        <v>850667</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>2492503</v>
+        <v>2495484</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>2636423</v>
+        <v>2629602</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>2858528</v>
+        <v>2850508</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>2482115</v>
+        <v>2484906</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1819799</v>
+        <v>1815870</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1889626</v>
+        <v>1887029</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1922470</v>
+        <v>1917431</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>1735281</v>
+        <v>1729091</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>860221</v>
+        <v>860329</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>942090</v>
+        <v>948229</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1125745</v>
+        <v>1117699</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>947998</v>
+        <v>946332</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>2656737</v>
+        <v>2654392</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>2808878</v>
+        <v>2797000</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>3017477</v>
+        <v>3010381</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>2643579</v>
+        <v>2645995</v>
       </c>
     </row>
     <row r="24">
